--- a/DATA_goal/Junction_Flooding_499.xlsx
+++ b/DATA_goal/Junction_Flooding_499.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44830.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="F2" s="4" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>0.97</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="O2" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>60.45</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="3">
@@ -759,16 +759,16 @@
         <v>44830.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0</v>
@@ -816,46 +816,46 @@
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="AB3" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AG3" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AH3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44830.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.33</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.25</v>
+        <v>22.47</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.4</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.65</v>
+        <v>26.46</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.69</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.76</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.85</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.6</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.69</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.75</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.9</v>
+        <v>118.97</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.27</v>
+        <v>22.71</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.48</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.52</v>
+        <v>15.16</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.7</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.8</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.38</v>
+        <v>23.79</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.32</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44830.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.71</v>
+        <v>17.09</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.08</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.72</v>
+        <v>37.22</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.06</v>
+        <v>30.64</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.79</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.01</v>
+        <v>50.11</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.09</v>
+        <v>20.88</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.37</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.59</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.57</v>
+        <v>15.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.32</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.42</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.93</v>
+        <v>19.3</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.15</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>19.9</v>
+        <v>198.96</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.77</v>
+        <v>37.65</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.37</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.54</v>
+        <v>25.38</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.51</v>
+        <v>25.11</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.19</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.19</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.57</v>
+        <v>45.67</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.11</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_499.xlsx
+++ b/DATA_goal/Junction_Flooding_499.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44830.54861111111</v>
+        <v>45180.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.28</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.27</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.41</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.08</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>10.36</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.86</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.66</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.22</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.25</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.31</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.63</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.54</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>60.45</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>12.19</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.36</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.73</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.54</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.73</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>8.52</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44830.55555555555</v>
+        <v>45180.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.18</v>
+        <v>8.162000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.44</v>
+        <v>6.193</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.017</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.29</v>
+        <v>18.67</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>16.171</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>6.336</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.38</v>
+        <v>18.503</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.38</v>
+        <v>9.962</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.5</v>
+        <v>4.573</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.99</v>
+        <v>7.238</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.28</v>
+        <v>8.420999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>7.928</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.2</v>
+        <v>6.5</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.57</v>
+        <v>9.366</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.12</v>
+        <v>5.355</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.198</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.461</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>94.996</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.21</v>
+        <v>17.909</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.14</v>
+        <v>5.982</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.67</v>
+        <v>12.21</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.56</v>
+        <v>6.284</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.478</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.09</v>
+        <v>9.651</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.13</v>
+        <v>5.414</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.34</v>
+        <v>5.173</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.1</v>
+        <v>5.811</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.06</v>
+        <v>8.965999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.888</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.71</v>
+        <v>17.174</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.13</v>
+        <v>3.844</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.45</v>
+        <v>7.443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44830.5625</v>
+        <v>45180.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.33</v>
+        <v>14.611</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>10.991</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.292</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>22.47</v>
+        <v>32.349</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>18.4</v>
+        <v>27.112</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>11.443</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>26.46</v>
+        <v>41.912</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.69</v>
+        <v>17.735</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.76</v>
+        <v>8.071</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9</v>
+        <v>12.179</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.85</v>
+        <v>13.526</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.41</v>
+        <v>13.732</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.6</v>
+        <v>4.283</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>11.464</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.69</v>
+        <v>16.568</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.75</v>
+        <v>9.529</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.604</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>118.97</v>
+        <v>169.746</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>22.71</v>
+        <v>32.08</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.48</v>
+        <v>10.568</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>15.16</v>
+        <v>21.838</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>11.327</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.12</v>
+        <v>1.905</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.7</v>
+        <v>21.054</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.63</v>
+        <v>9.464</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.6</v>
+        <v>8.561</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.8</v>
+        <v>9.946</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.12</v>
+        <v>14.249</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.492</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>23.79</v>
+        <v>38.787</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.32</v>
+        <v>6.345</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>13.214</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44830.56944444445</v>
+        <v>45180.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.09</v>
+        <v>16.14</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.08</v>
+        <v>12.12</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>37.22</v>
+        <v>35.51</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>30.64</v>
+        <v>29.6</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.79</v>
+        <v>12.66</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>50.11</v>
+        <v>49.36</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.88</v>
+        <v>19.57</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.44</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.37</v>
+        <v>13.31</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.59</v>
+        <v>14.63</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.68</v>
+        <v>15.07</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.32</v>
+        <v>4.49</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.42</v>
+        <v>12.63</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.3</v>
+        <v>18.24</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.15</v>
+        <v>10.51</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>198.96</v>
+        <v>187.03</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>37.65</v>
+        <v>35.41</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.37</v>
+        <v>11.65</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>25.38</v>
+        <v>24.07</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.96</v>
+        <v>12.52</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.11</v>
+        <v>24.14</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.96</v>
+        <v>10.4</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.19</v>
+        <v>9.31</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.26</v>
+        <v>10.88</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.19</v>
+        <v>15.4</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>45.67</v>
+        <v>45.39</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.11</v>
+        <v>6.89</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.62</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44830.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.89</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>31.74</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>107.33</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20.99</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.36</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>29.11</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.68</v>
+        <v>14.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_499.xlsx
+++ b/DATA_goal/Junction_Flooding_499.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,11 @@
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45180.50694444445</v>
+        <v>44830.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>4.284</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>5.265</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.768</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>10.407</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>9.715</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>5.079</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>10.361</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>6.858</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>3.662</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>6.216</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>7.246</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>4.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.973</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>3.629</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>6.538</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>2.613</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>0.117</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>60.452</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>12.195</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>7.364</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>6.727</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>5.701</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>5.538</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>2.243</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>6.732</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>0.372</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>8.518000000000001</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>5.204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45180.51388888889</v>
+        <v>44830.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.162000000000001</v>
+        <v>0.179</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.193</v>
+        <v>0.437</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.017</v>
+        <v>0.133</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.67</v>
+        <v>0.295</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.171</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.336</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>18.503</v>
+        <v>3.382</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.962</v>
+        <v>0.379</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.573</v>
+        <v>0.504</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.238</v>
+        <v>0.988</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.420999999999999</v>
+        <v>1.279</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.928</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.5</v>
+        <v>0.202</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.366</v>
+        <v>0.575</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.355</v>
+        <v>0.122</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.198</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.461</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>94.996</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>17.909</v>
+        <v>1.215</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.982</v>
+        <v>0.142</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.21</v>
+        <v>0.666</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.284</v>
+        <v>1.556</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.478</v>
+        <v>0.126</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.651</v>
+        <v>2.091</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.414</v>
+        <v>0.129</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.173</v>
+        <v>1.336</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.811</v>
+        <v>0.102</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.965999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.888</v>
+        <v>0.217</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>17.174</v>
+        <v>3.708</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.844</v>
+        <v>0.135</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.443</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45180.52083333334</v>
+        <v>44830.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.611</v>
+        <v>10.328</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.991</v>
+        <v>8.032</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.292</v>
+        <v>0.473</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>32.349</v>
+        <v>22.465</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>27.112</v>
+        <v>18.403</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.443</v>
+        <v>8.468</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>41.912</v>
+        <v>26.455</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.735</v>
+        <v>12.693</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.071</v>
+        <v>5.763</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.179</v>
+        <v>8.999000000000001</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.526</v>
+        <v>9.846</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.732</v>
+        <v>9.412000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.283</v>
+        <v>2.598</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.464</v>
+        <v>8.132999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.568</v>
+        <v>11.69</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.529</v>
+        <v>6.752</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.081</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.604</v>
+        <v>0.287</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>169.746</v>
+        <v>118.974</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>32.08</v>
+        <v>22.714</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.568</v>
+        <v>7.478</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.838</v>
+        <v>15.157</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.327</v>
+        <v>8.871</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.905</v>
+        <v>1.122</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.054</v>
+        <v>13.696</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.464</v>
+        <v>6.635</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.561</v>
+        <v>6.601</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.946</v>
+        <v>6.8</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.249</v>
+        <v>10.122</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.492</v>
+        <v>0.161</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>38.787</v>
+        <v>23.785</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.345</v>
+        <v>4.325</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.214</v>
+        <v>9.544</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45180.52777777778</v>
+        <v>44830.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.14</v>
+        <v>17.093</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.12</v>
+        <v>13.081</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35.51</v>
+        <v>37.223</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>29.6</v>
+        <v>30.635</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.66</v>
+        <v>13.794</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>49.36</v>
+        <v>50.109</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.57</v>
+        <v>20.877</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>9.441000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.31</v>
+        <v>14.366</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.63</v>
+        <v>15.591</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.07</v>
+        <v>15.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.49</v>
+        <v>4.32</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.63</v>
+        <v>13.42</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.24</v>
+        <v>19.305</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.51</v>
+        <v>11.151</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.137</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.478</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>187.03</v>
+        <v>198.955</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>35.41</v>
+        <v>37.652</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.65</v>
+        <v>12.367</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>24.07</v>
+        <v>25.379</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.52</v>
+        <v>13.958</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.96</v>
+        <v>1.797</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.14</v>
+        <v>25.114</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.4</v>
+        <v>10.961</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.31</v>
+        <v>10.189</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.88</v>
+        <v>11.263</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.4</v>
+        <v>16.193</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.129</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>45.39</v>
+        <v>45.667</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.89</v>
+        <v>7.109</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.58</v>
+        <v>15.619</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44830.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>31.74</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>107.33</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>15.36</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.68</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_499.xlsx
+++ b/DATA_goal/Junction_Flooding_499.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,11 @@
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44830.54861111111</v>
+        <v>45180.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.284</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.265</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.768</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.407</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.715</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.079</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>10.361</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.858</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.662</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.216</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.246</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.306</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.973</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.629</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.538</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.613</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.117</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>60.452</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>12.195</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.364</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.727</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.701</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.538</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.243</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.732</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.372</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>8.518000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44830.55555555555</v>
+        <v>45180.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.179</v>
+        <v>8.162000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.437</v>
+        <v>6.193</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.133</v>
+        <v>0.017</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.295</v>
+        <v>18.67</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>16.171</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>6.336</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.382</v>
+        <v>18.503</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.379</v>
+        <v>9.962</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.504</v>
+        <v>4.573</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.988</v>
+        <v>7.238</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.279</v>
+        <v>8.420999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>7.928</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.202</v>
+        <v>6.5</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.575</v>
+        <v>9.366</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.122</v>
+        <v>5.355</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.198</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.461</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>94.996</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.215</v>
+        <v>17.909</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.142</v>
+        <v>5.982</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.666</v>
+        <v>12.21</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.556</v>
+        <v>6.284</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.126</v>
+        <v>1.478</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.091</v>
+        <v>9.651</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.129</v>
+        <v>5.414</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.336</v>
+        <v>5.173</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.102</v>
+        <v>5.811</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.06</v>
+        <v>8.965999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.217</v>
+        <v>0.888</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.708</v>
+        <v>17.174</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.135</v>
+        <v>3.844</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.453</v>
+        <v>7.443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44830.5625</v>
+        <v>45180.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.328</v>
+        <v>14.611</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.032</v>
+        <v>10.991</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.473</v>
+        <v>0.292</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>22.465</v>
+        <v>32.349</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>18.403</v>
+        <v>27.112</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.468</v>
+        <v>11.443</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>26.455</v>
+        <v>41.912</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.693</v>
+        <v>17.735</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.763</v>
+        <v>8.071</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.999000000000001</v>
+        <v>12.179</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.846</v>
+        <v>13.526</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.412000000000001</v>
+        <v>13.732</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.598</v>
+        <v>4.283</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.132999999999999</v>
+        <v>11.464</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.69</v>
+        <v>16.568</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.752</v>
+        <v>9.529</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.081</v>
+        <v>0.18</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.287</v>
+        <v>0.604</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>118.974</v>
+        <v>169.746</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>22.714</v>
+        <v>32.08</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.478</v>
+        <v>10.568</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>15.157</v>
+        <v>21.838</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.871</v>
+        <v>11.327</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.122</v>
+        <v>1.905</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.696</v>
+        <v>21.054</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.635</v>
+        <v>9.464</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.601</v>
+        <v>8.561</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.8</v>
+        <v>9.946</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.122</v>
+        <v>14.249</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.161</v>
+        <v>0.492</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>23.785</v>
+        <v>38.787</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.325</v>
+        <v>6.345</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.544</v>
+        <v>13.214</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44830.56944444445</v>
+        <v>45180.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.093</v>
+        <v>16.14</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.081</v>
+        <v>12.12</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>37.223</v>
+        <v>35.51</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>30.635</v>
+        <v>29.6</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.794</v>
+        <v>12.66</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>50.109</v>
+        <v>49.36</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.877</v>
+        <v>19.57</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.441000000000001</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.366</v>
+        <v>13.31</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.591</v>
+        <v>14.63</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.68</v>
+        <v>15.07</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.32</v>
+        <v>4.49</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.42</v>
+        <v>12.63</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.305</v>
+        <v>18.24</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.151</v>
+        <v>10.51</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.137</v>
+        <v>0.17</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.478</v>
+        <v>0.62</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>198.955</v>
+        <v>187.03</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>37.652</v>
+        <v>35.41</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.367</v>
+        <v>11.65</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>25.379</v>
+        <v>24.07</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.958</v>
+        <v>12.52</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.797</v>
+        <v>1.96</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.114</v>
+        <v>24.14</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.961</v>
+        <v>10.4</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.189</v>
+        <v>9.31</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.263</v>
+        <v>10.88</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.193</v>
+        <v>15.4</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.129</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>45.667</v>
+        <v>45.39</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.109</v>
+        <v>6.89</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.619</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44830.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.89</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>31.74</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>107.33</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20.99</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.36</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>29.11</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.68</v>
+        <v>14.58</v>
       </c>
     </row>
   </sheetData>
